--- a/data/trans_orig/IP39B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP39B-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0636059C-4122-42B0-BA58-274D1925550A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF4BA48-63D2-4904-9FAD-06201FCEF418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77AB6E09-C4DA-4A03-9CA9-DA47B6169E15}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D13F571-8E3E-4E8F-9352-2757F9B739AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="537">
   <si>
     <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2007 (Tasa respuesta: 53,99%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,31%</t>
+    <t>5,38%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,93%</t>
+    <t>2,78%</t>
   </si>
   <si>
     <t>De 10 a 20</t>
@@ -100,13 +100,13 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>4,51%</t>
+    <t>5,04%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>7,94%</t>
+    <t>7,8%</t>
   </si>
   <si>
     <t>1,79%</t>
@@ -115,1543 +115,1540 @@
     <t>0,49%</t>
   </si>
   <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>De 6 a 9</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>De 1 a 5</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 44,59%)</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2016 (Tasa respuesta: 49,11%)</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>De 6 a 9</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>De 1 a 5</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
   </si>
   <si>
     <t>84,46%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 44,59%)</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2015 (Tasa respuesta: 49,11%)</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FF5C9D-CA94-4F1D-80F0-6304CBA39AFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468DCD33-767B-4879-87C1-6DD2D4EF135B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2531,7 +2528,7 @@
         <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2543,13 @@
         <v>2063</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2561,13 +2558,13 @@
         <v>1292</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -2576,13 +2573,13 @@
         <v>3355</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2594,13 @@
         <v>1332</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -2618,7 +2615,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -2630,10 +2627,10 @@
         <v>54</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2645,13 @@
         <v>21577</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -2663,13 +2660,13 @@
         <v>25394</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -2678,13 +2675,13 @@
         <v>46971</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2696,13 @@
         <v>114931</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>171</v>
@@ -2714,13 +2711,13 @@
         <v>112916</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>345</v>
@@ -2729,13 +2726,13 @@
         <v>227847</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,7 +2788,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2803,13 +2800,13 @@
         <v>593</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2824,7 +2821,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2833,7 +2830,7 @@
         <v>593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
@@ -2908,10 +2905,10 @@
         <v>106</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -2920,13 +2917,13 @@
         <v>2696</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -2935,13 +2932,13 @@
         <v>5767</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2953,13 @@
         <v>8396</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -2971,13 +2968,13 @@
         <v>8141</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -2986,13 +2983,13 @@
         <v>16537</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3004,13 @@
         <v>66885</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -3022,13 +3019,13 @@
         <v>41562</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>163</v>
@@ -3037,13 +3034,13 @@
         <v>108448</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,7 +3096,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3111,13 +3108,13 @@
         <v>1257</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3177,13 +3174,13 @@
         <v>2109</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3192,13 +3189,13 @@
         <v>2740</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3210,13 @@
         <v>4636</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3228,13 +3225,13 @@
         <v>4143</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -3243,13 +3240,13 @@
         <v>8779</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3261,13 @@
         <v>20102</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -3279,13 +3276,13 @@
         <v>15532</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -3294,13 +3291,13 @@
         <v>35634</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3312,13 @@
         <v>78846</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>124</v>
@@ -3330,13 +3327,13 @@
         <v>85141</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>243</v>
@@ -3345,13 +3342,13 @@
         <v>163986</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3416,13 @@
         <v>3886</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3434,13 +3431,13 @@
         <v>2755</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -3449,13 +3446,13 @@
         <v>6641</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3467,13 @@
         <v>6686</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -3485,13 +3482,13 @@
         <v>7230</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -3500,13 +3497,13 @@
         <v>13915</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3518,13 @@
         <v>9039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -3536,13 +3533,13 @@
         <v>8676</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -3551,13 +3548,13 @@
         <v>17715</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3569,13 @@
         <v>54714</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H31" s="7">
         <v>87</v>
@@ -3587,13 +3584,13 @@
         <v>57863</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M31" s="7">
         <v>167</v>
@@ -3602,13 +3599,13 @@
         <v>112577</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3620,13 @@
         <v>315431</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H32" s="7">
         <v>437</v>
@@ -3638,13 +3635,13 @@
         <v>291760</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>912</v>
@@ -3653,13 +3650,13 @@
         <v>607191</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,7 +3712,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3735,7 +3732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04A3CC0-CA0A-4CEA-900A-CF68C123E3BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7110DCCD-5F86-411C-8E03-052F0F5FD042}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3752,7 +3749,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3859,13 +3856,13 @@
         <v>670</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3874,13 +3871,13 @@
         <v>1341</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3889,13 +3886,13 @@
         <v>2011</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3907,13 @@
         <v>1581</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3940,13 +3937,13 @@
         <v>1581</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3958,13 @@
         <v>2056</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -3976,13 +3973,13 @@
         <v>2718</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -3991,13 +3988,13 @@
         <v>4774</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4009,13 @@
         <v>5434</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -4027,13 +4024,13 @@
         <v>5472</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -4042,13 +4039,13 @@
         <v>10906</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4060,13 @@
         <v>52646</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>78</v>
@@ -4078,13 +4075,13 @@
         <v>52607</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>153</v>
@@ -4093,13 +4090,13 @@
         <v>105253</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,7 +4170,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4182,13 +4179,13 @@
         <v>787</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4197,13 +4194,13 @@
         <v>1531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4215,13 @@
         <v>1988</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4233,13 +4230,13 @@
         <v>2051</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4248,13 +4245,13 @@
         <v>4039</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4266,13 @@
         <v>2695</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -4284,13 +4281,13 @@
         <v>4818</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -4299,13 +4296,13 @@
         <v>7513</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4317,13 @@
         <v>16844</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4335,13 +4332,13 @@
         <v>15229</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -4350,13 +4347,13 @@
         <v>32073</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4368,13 @@
         <v>101262</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>116</v>
@@ -4386,13 +4383,13 @@
         <v>80006</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>255</v>
@@ -4401,13 +4398,13 @@
         <v>181267</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,7 +4460,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4475,13 +4472,13 @@
         <v>1097</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4490,13 +4487,13 @@
         <v>1256</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4505,13 +4502,13 @@
         <v>2353</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4523,13 @@
         <v>443</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4547,7 +4544,7 @@
         <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4556,13 +4553,13 @@
         <v>443</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4574,13 @@
         <v>2715</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -4592,13 +4589,13 @@
         <v>1397</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -4607,13 +4604,13 @@
         <v>4112</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4625,13 @@
         <v>8237</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -4643,13 +4640,13 @@
         <v>8606</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -4658,13 +4655,13 @@
         <v>16843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4676,13 @@
         <v>64775</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>89</v>
@@ -4694,13 +4691,13 @@
         <v>61849</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M20" s="7">
         <v>182</v>
@@ -4709,13 +4706,13 @@
         <v>126625</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,7 +4768,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4783,13 +4780,13 @@
         <v>3195</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>315</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4798,13 +4795,13 @@
         <v>594</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -4813,13 +4810,13 @@
         <v>3789</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>96</v>
+        <v>318</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4831,13 @@
         <v>1152</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4855,7 +4852,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4864,13 +4861,13 @@
         <v>1152</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4882,13 @@
         <v>1936</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>299</v>
+        <v>179</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -4900,13 +4897,13 @@
         <v>1180</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>180</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -4915,13 +4912,13 @@
         <v>3116</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4933,13 @@
         <v>9764</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -4951,13 +4948,13 @@
         <v>10892</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -4966,13 +4963,13 @@
         <v>20656</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +4984,13 @@
         <v>55355</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H26" s="7">
         <v>93</v>
@@ -5002,13 +4999,13 @@
         <v>66501</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M26" s="7">
         <v>175</v>
@@ -5017,13 +5014,13 @@
         <v>121857</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5088,13 @@
         <v>5707</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>353</v>
+        <v>55</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -5106,13 +5103,13 @@
         <v>3977</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>67</v>
+        <v>349</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -5121,13 +5118,13 @@
         <v>9684</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>180</v>
+        <v>326</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5139,13 @@
         <v>5164</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>28</v>
+        <v>353</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>70</v>
+        <v>354</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -5157,13 +5154,13 @@
         <v>2051</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>359</v>
+        <v>229</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -5172,13 +5169,13 @@
         <v>7215</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5190,13 @@
         <v>9402</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>363</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>364</v>
+        <v>98</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -5208,13 +5205,13 @@
         <v>10114</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>55</v>
+        <v>360</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -5223,13 +5220,13 @@
         <v>19515</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5241,13 @@
         <v>40279</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H31" s="7">
         <v>59</v>
@@ -5259,13 +5256,13 @@
         <v>40198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M31" s="7">
         <v>117</v>
@@ -5274,13 +5271,13 @@
         <v>80477</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>115</v>
+        <v>372</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5292,13 @@
         <v>274039</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H32" s="7">
         <v>376</v>
@@ -5310,13 +5307,13 @@
         <v>260962</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M32" s="7">
         <v>765</v>
@@ -5325,13 +5322,13 @@
         <v>535001</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,7 +5384,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5407,7 +5404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870BAEA0-2E03-4525-8FD4-5D469FC91B0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32741CB-0B6C-4FEF-80F4-5D5B85E81023}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5424,7 +5421,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5531,13 +5528,13 @@
         <v>1410</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>60</v>
+        <v>384</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5546,13 +5543,13 @@
         <v>1319</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5561,13 +5558,13 @@
         <v>2729</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5579,13 @@
         <v>1209</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5597,13 +5594,13 @@
         <v>1323</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>60</v>
+        <v>384</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -5612,13 +5609,13 @@
         <v>2532</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>393</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5630,13 @@
         <v>1847</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -5648,13 +5645,13 @@
         <v>2300</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -5663,10 +5660,10 @@
         <v>4147</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>402</v>
@@ -5690,7 +5687,7 @@
         <v>404</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>405</v>
+        <v>154</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -5699,13 +5696,13 @@
         <v>5881</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5714,13 +5711,13 @@
         <v>10238</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>408</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,7 +5738,7 @@
         <v>411</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>412</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>82</v>
@@ -5750,13 +5747,13 @@
         <v>48884</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M8" s="7">
         <v>164</v>
@@ -5765,13 +5762,13 @@
         <v>103708</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5836,13 @@
         <v>549</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>332</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5854,13 +5851,13 @@
         <v>753</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5875,7 +5872,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5887,13 @@
         <v>700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5905,7 +5902,7 @@
         <v>1134</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>422</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
@@ -5926,7 +5923,7 @@
         <v>425</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5938,13 @@
         <v>3144</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5956,13 +5953,13 @@
         <v>1878</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>151</v>
+        <v>315</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>333</v>
+        <v>428</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -5971,13 +5968,13 @@
         <v>5022</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +5989,13 @@
         <v>12901</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -6007,13 +6004,13 @@
         <v>11167</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -6022,13 +6019,13 @@
         <v>24068</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6040,13 @@
         <v>112394</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>147</v>
@@ -6058,13 +6055,13 @@
         <v>92087</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>312</v>
@@ -6073,10 +6070,10 @@
         <v>204481</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>448</v>
@@ -6135,7 +6132,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6177,13 +6174,13 @@
         <v>2084</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>453</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6195,13 @@
         <v>1552</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6213,7 +6210,7 @@
         <v>753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>457</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
@@ -6231,10 +6228,10 @@
         <v>135</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>459</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6246,13 @@
         <v>2901</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -6264,7 +6261,7 @@
         <v>738</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>462</v>
+        <v>179</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
@@ -6279,13 +6276,13 @@
         <v>3639</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>424</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>464</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6297,13 @@
         <v>3897</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -6315,13 +6312,13 @@
         <v>12674</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -6330,13 +6327,13 @@
         <v>16571</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6348,13 @@
         <v>81589</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H20" s="7">
         <v>110</v>
@@ -6366,13 +6363,13 @@
         <v>76943</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>284</v>
+        <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>226</v>
@@ -6381,13 +6378,13 @@
         <v>158532</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,7 +6440,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6455,13 +6452,13 @@
         <v>713</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>299</v>
+        <v>480</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>481</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6470,13 +6467,13 @@
         <v>722</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -6485,13 +6482,13 @@
         <v>1435</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>484</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,13 +6503,13 @@
         <v>690</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -6521,13 +6518,13 @@
         <v>540</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>487</v>
+        <v>255</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -6536,13 +6533,13 @@
         <v>1230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>190</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,10 +6554,10 @@
         <v>3529</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>29</v>
+        <v>463</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>221</v>
+        <v>488</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>489</v>
@@ -6590,10 +6587,10 @@
         <v>492</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,13 +6605,13 @@
         <v>10278</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -6623,13 +6620,13 @@
         <v>7778</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>498</v>
+        <v>270</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>391</v>
+        <v>496</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -6638,13 +6635,13 @@
         <v>18055</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>500</v>
+        <v>74</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,13 +6656,13 @@
         <v>71597</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H26" s="7">
         <v>94</v>
@@ -6674,13 +6671,13 @@
         <v>68247</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M26" s="7">
         <v>189</v>
@@ -6689,13 +6686,13 @@
         <v>139843</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>129</v>
+        <v>506</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6760,13 @@
         <v>4756</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>510</v>
+        <v>257</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -6778,13 +6775,13 @@
         <v>2793</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>396</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>425</v>
+        <v>510</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>512</v>
+        <v>15</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -6793,13 +6790,13 @@
         <v>7549</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>294</v>
+        <v>511</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>513</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6814,13 +6811,13 @@
         <v>4151</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>514</v>
+        <v>61</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -6829,13 +6826,13 @@
         <v>3750</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>516</v>
+        <v>61</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -6844,13 +6841,13 @@
         <v>7901</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>362</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,13 +6862,13 @@
         <v>11422</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>109</v>
+        <v>516</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -6880,13 +6877,13 @@
         <v>6388</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>520</v>
+        <v>55</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -6895,13 +6892,13 @@
         <v>17810</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>356</v>
+        <v>517</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>196</v>
+        <v>518</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6913,13 @@
         <v>31433</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="H31" s="7">
         <v>57</v>
@@ -6931,13 +6928,13 @@
         <v>37500</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>525</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>526</v>
+        <v>269</v>
       </c>
       <c r="M31" s="7">
         <v>104</v>
@@ -6946,13 +6943,13 @@
         <v>68932</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,13 +6964,13 @@
         <v>320405</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="H32" s="7">
         <v>433</v>
@@ -6982,13 +6979,13 @@
         <v>286160</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="M32" s="7">
         <v>891</v>
@@ -6997,13 +6994,13 @@
         <v>606565</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>350</v>
+        <v>534</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,7 +7056,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP39B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP39B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF4BA48-63D2-4904-9FAD-06201FCEF418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02966051-1C2D-4198-A53D-BFF42404D91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D13F571-8E3E-4E8F-9352-2757F9B739AC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4464387D-2FAE-43AF-8087-BF4340205C2E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="544">
   <si>
     <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2007 (Tasa respuesta: 53,99%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1582 +73,1603 @@
     <t>Más de 20</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>5,25%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,78%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>De 10 a 20</t>
   </si>
   <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>De 6 a 9</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>De 1 a 5</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>De 6 a 9</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 44,59%)</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>De 1 a 5</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2016 (Tasa respuesta: 49,11%)</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>0,98%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 44,59%)</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>Adulto según el número de personas que trabajan bajo su responsabilidad en 2016 (Tasa respuesta: 49,11%)</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>4,79%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
     <t>9,73%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>86,09%</t>
   </si>
   <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
+    <t>82,95%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
 </sst>
 </file>
@@ -2060,7 +2081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468DCD33-767B-4879-87C1-6DD2D4EF135B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D72F29-A810-4938-85CA-FDED89087FF7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2178,10 +2199,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2193,16 +2214,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2217,7 +2238,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -2229,31 +2250,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>603</v>
+        <v>1614</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1614</v>
+        <v>603</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -2280,28 +2301,28 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>448</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>448</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
@@ -2319,7 +2340,7 @@
         <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -2331,10 +2352,10 @@
         <v>32</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>4639</v>
+        <v>8796</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>33</v>
@@ -2346,10 +2367,10 @@
         <v>35</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>8796</v>
+        <v>4639</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2382,10 +2403,10 @@
         <v>42</v>
       </c>
       <c r="C8" s="7">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D8" s="7">
-        <v>54769</v>
+        <v>52140</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>43</v>
@@ -2397,10 +2418,10 @@
         <v>45</v>
       </c>
       <c r="H8" s="7">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I8" s="7">
-        <v>52140</v>
+        <v>54769</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>46</v>
@@ -2433,25 +2454,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>95</v>
+      </c>
+      <c r="D9" s="7">
+        <v>62998</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7">
         <v>92</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>60698</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7">
-        <v>95</v>
-      </c>
-      <c r="I9" s="7">
-        <v>62998</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>52</v>
@@ -2489,13 +2510,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1349</v>
+        <v>1389</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>55</v>
@@ -2504,13 +2525,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1389</v>
+        <v>1349</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>57</v>
@@ -2528,7 +2549,7 @@
         <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,34 +2558,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2063</v>
+        <v>1292</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>1292</v>
+        <v>2063</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -2573,13 +2594,13 @@
         <v>3355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2612,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>1332</v>
+        <v>1389</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>69</v>
@@ -2606,16 +2627,16 @@
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1389</v>
+        <v>1332</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -2624,13 +2645,13 @@
         <v>2721</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,34 +2660,34 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7">
+        <v>25394</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="7">
         <v>32</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>21577</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="7">
-        <v>38</v>
-      </c>
-      <c r="I13" s="7">
-        <v>25394</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -2675,13 +2696,13 @@
         <v>46971</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,34 +2711,34 @@
         <v>42</v>
       </c>
       <c r="C14" s="7">
+        <v>171</v>
+      </c>
+      <c r="D14" s="7">
+        <v>112916</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="7">
         <v>174</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>114931</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="7">
-        <v>171</v>
-      </c>
-      <c r="I14" s="7">
-        <v>112916</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>345</v>
@@ -2726,13 +2747,13 @@
         <v>227847</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,25 +2762,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>215</v>
+      </c>
+      <c r="D15" s="7">
+        <v>142380</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="7">
         <v>213</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141252</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="7">
-        <v>215</v>
-      </c>
-      <c r="I15" s="7">
-        <v>142380</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>52</v>
@@ -2788,19 +2809,19 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -2809,19 +2830,19 @@
         <v>93</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2830,13 +2851,13 @@
         <v>593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,10 +2866,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>3389</v>
+        <v>2214</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2860,10 +2881,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>2214</v>
+        <v>3389</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2896,34 +2917,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>3071</v>
+        <v>2696</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>2696</v>
+        <v>3071</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -2932,7 +2953,7 @@
         <v>5767</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>112</v>
@@ -2950,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>8396</v>
+        <v>8141</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>114</v>
@@ -2965,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>8141</v>
+        <v>8396</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>117</v>
@@ -2998,10 +3019,10 @@
         <v>42</v>
       </c>
       <c r="C20" s="7">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D20" s="7">
-        <v>66885</v>
+        <v>41562</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>123</v>
@@ -3013,10 +3034,10 @@
         <v>125</v>
       </c>
       <c r="H20" s="7">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="I20" s="7">
-        <v>41562</v>
+        <v>66885</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>126</v>
@@ -3049,25 +3070,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>83</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54613</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="7">
         <v>122</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>82334</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="7">
-        <v>83</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54613</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>52</v>
@@ -3105,13 +3126,13 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1257</v>
+        <v>1366</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>134</v>
@@ -3120,16 +3141,16 @@
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>1366</v>
+        <v>1257</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -3138,13 +3159,13 @@
         <v>2623</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,34 +3174,34 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2109</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>631</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="H23" s="7">
-        <v>3</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2109</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3189,10 +3210,10 @@
         <v>2740</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>144</v>
@@ -3204,10 +3225,10 @@
         <v>26</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>4636</v>
+        <v>4143</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>145</v>
@@ -3219,19 +3240,19 @@
         <v>147</v>
       </c>
       <c r="H24" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>4143</v>
+        <v>4636</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -3240,13 +3261,13 @@
         <v>8779</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,34 +3276,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="7">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7">
+        <v>15532</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="7">
         <v>29</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>20102</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H25" s="7">
-        <v>23</v>
-      </c>
-      <c r="I25" s="7">
-        <v>15532</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -3291,13 +3312,13 @@
         <v>35634</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,34 +3327,34 @@
         <v>42</v>
       </c>
       <c r="C26" s="7">
+        <v>124</v>
+      </c>
+      <c r="D26" s="7">
+        <v>85141</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="7">
         <v>119</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>78846</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H26" s="7">
-        <v>124</v>
-      </c>
-      <c r="I26" s="7">
-        <v>85141</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>243</v>
@@ -3342,13 +3363,13 @@
         <v>163986</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,7 +3381,7 @@
         <v>158</v>
       </c>
       <c r="D27" s="7">
-        <v>105472</v>
+        <v>108291</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>52</v>
@@ -3375,7 +3396,7 @@
         <v>158</v>
       </c>
       <c r="I27" s="7">
-        <v>108291</v>
+        <v>105472</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>52</v>
@@ -3410,34 +3431,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2755</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="7">
         <v>6</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>3886</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="7">
-        <v>4</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2755</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -3446,13 +3467,13 @@
         <v>6641</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,31 +3485,31 @@
         <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>6686</v>
+        <v>7230</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>7230</v>
+        <v>6686</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -3497,13 +3518,13 @@
         <v>13915</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,34 +3533,34 @@
         <v>26</v>
       </c>
       <c r="C30" s="7">
+        <v>13</v>
+      </c>
+      <c r="D30" s="7">
+        <v>8676</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H30" s="7">
         <v>14</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>9039</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H30" s="7">
-        <v>13</v>
-      </c>
-      <c r="I30" s="7">
-        <v>8676</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -3548,13 +3569,13 @@
         <v>17715</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,34 +3584,34 @@
         <v>32</v>
       </c>
       <c r="C31" s="7">
+        <v>87</v>
+      </c>
+      <c r="D31" s="7">
+        <v>57863</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" s="7">
         <v>80</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>54714</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H31" s="7">
-        <v>87</v>
-      </c>
-      <c r="I31" s="7">
-        <v>57863</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M31" s="7">
         <v>167</v>
@@ -3599,13 +3620,13 @@
         <v>112577</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,34 +3635,34 @@
         <v>42</v>
       </c>
       <c r="C32" s="7">
+        <v>437</v>
+      </c>
+      <c r="D32" s="7">
+        <v>291760</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" s="7">
         <v>475</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>315431</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H32" s="7">
-        <v>437</v>
-      </c>
-      <c r="I32" s="7">
-        <v>291760</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M32" s="7">
         <v>912</v>
@@ -3650,13 +3671,13 @@
         <v>607191</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,25 +3686,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>551</v>
+      </c>
+      <c r="D33" s="7">
+        <v>368283</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="7">
         <v>585</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>389756</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="7">
-        <v>551</v>
-      </c>
-      <c r="I33" s="7">
-        <v>368283</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>52</v>
@@ -3712,7 +3733,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3732,7 +3753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7110DCCD-5F86-411C-8E03-052F0F5FD042}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4F5AD5-CE80-4289-A544-7DFB245032A5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3749,7 +3770,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3850,34 +3871,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1341</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>670</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1341</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3886,13 +3907,13 @@
         <v>2011</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,34 +3922,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1581</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1581</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3937,13 +3958,13 @@
         <v>1581</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,34 +3973,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2718</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2056</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2718</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -3988,13 +4009,13 @@
         <v>4774</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,31 +4027,31 @@
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>5434</v>
+        <v>5472</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>5472</v>
+        <v>5434</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -4039,13 +4060,13 @@
         <v>10906</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,34 +4075,34 @@
         <v>42</v>
       </c>
       <c r="C8" s="7">
+        <v>78</v>
+      </c>
+      <c r="D8" s="7">
+        <v>52607</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="7">
         <v>75</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>52646</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H8" s="7">
-        <v>78</v>
-      </c>
-      <c r="I8" s="7">
-        <v>52607</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>153</v>
@@ -4090,13 +4111,13 @@
         <v>105253</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,25 +4126,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>92</v>
+      </c>
+      <c r="D9" s="7">
+        <v>62137</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7">
         <v>89</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>62388</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7">
-        <v>92</v>
-      </c>
-      <c r="I9" s="7">
-        <v>62137</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>52</v>
@@ -4161,31 +4182,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>744</v>
+        <v>787</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>787</v>
+        <v>744</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4194,13 +4215,13 @@
         <v>1531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,31 +4233,31 @@
         <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1988</v>
+        <v>2051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>2051</v>
+        <v>1988</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4245,13 +4266,13 @@
         <v>4039</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,34 +4281,34 @@
         <v>26</v>
       </c>
       <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4818</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>2695</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4818</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -4296,13 +4317,13 @@
         <v>7513</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,34 +4332,34 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
+        <v>22</v>
+      </c>
+      <c r="D13" s="7">
+        <v>15229</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13" s="7">
         <v>23</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>16844</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15229</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -4347,13 +4368,13 @@
         <v>32073</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,34 +4383,34 @@
         <v>42</v>
       </c>
       <c r="C14" s="7">
+        <v>116</v>
+      </c>
+      <c r="D14" s="7">
+        <v>80006</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" s="7">
         <v>139</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>101262</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H14" s="7">
-        <v>116</v>
-      </c>
-      <c r="I14" s="7">
-        <v>80006</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>255</v>
@@ -4398,13 +4419,13 @@
         <v>181267</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,25 +4434,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>149</v>
+      </c>
+      <c r="D15" s="7">
+        <v>102891</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="7">
         <v>170</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>123533</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="7">
-        <v>149</v>
-      </c>
-      <c r="I15" s="7">
-        <v>102891</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>52</v>
@@ -4460,40 +4481,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1256</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1097</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1256</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4502,13 +4523,13 @@
         <v>2353</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,34 +4538,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4553,13 +4574,13 @@
         <v>443</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,34 +4589,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1397</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>2715</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1397</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -4604,13 +4625,13 @@
         <v>4112</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>296</v>
+        <v>175</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,34 +4640,34 @@
         <v>32</v>
       </c>
       <c r="C19" s="7">
+        <v>12</v>
+      </c>
+      <c r="D19" s="7">
+        <v>8606</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H19" s="7">
         <v>13</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>8237</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>8606</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -4655,13 +4676,13 @@
         <v>16843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,34 +4691,34 @@
         <v>42</v>
       </c>
       <c r="C20" s="7">
+        <v>89</v>
+      </c>
+      <c r="D20" s="7">
+        <v>61849</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" s="7">
         <v>93</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>64775</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H20" s="7">
-        <v>89</v>
-      </c>
-      <c r="I20" s="7">
-        <v>61849</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>167</v>
+        <v>317</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>182</v>
@@ -4706,13 +4727,13 @@
         <v>126625</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,25 +4742,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>105</v>
+      </c>
+      <c r="D21" s="7">
+        <v>73107</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="7">
         <v>112</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>77268</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="7">
-        <v>105</v>
-      </c>
-      <c r="I21" s="7">
-        <v>73107</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>52</v>
@@ -4774,34 +4795,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>594</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H22" s="7">
         <v>5</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>3195</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>594</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>173</v>
+        <v>323</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -4810,13 +4831,13 @@
         <v>3789</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>319</v>
+        <v>56</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,34 +4846,34 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4861,13 +4882,13 @@
         <v>1152</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,34 +4897,34 @@
         <v>26</v>
       </c>
       <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1180</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" s="7">
         <v>3</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>1936</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1180</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>326</v>
+        <v>188</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -4912,13 +4933,13 @@
         <v>3116</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,34 +4948,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="7">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7">
+        <v>10892</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H25" s="7">
         <v>14</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>9764</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H25" s="7">
-        <v>17</v>
-      </c>
-      <c r="I25" s="7">
-        <v>10892</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>31</v>
@@ -4963,13 +4984,13 @@
         <v>20656</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,34 +4999,34 @@
         <v>42</v>
       </c>
       <c r="C26" s="7">
+        <v>93</v>
+      </c>
+      <c r="D26" s="7">
+        <v>66501</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H26" s="7">
         <v>82</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>55355</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H26" s="7">
-        <v>93</v>
-      </c>
-      <c r="I26" s="7">
-        <v>66501</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>175</v>
@@ -5014,13 +5035,13 @@
         <v>121857</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,25 +5050,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>113</v>
+      </c>
+      <c r="D27" s="7">
+        <v>79167</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="7">
         <v>106</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>71402</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
-        <v>113</v>
-      </c>
-      <c r="I27" s="7">
-        <v>79167</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>52</v>
@@ -5082,34 +5103,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3977</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H28" s="7">
         <v>8</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>5707</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="7">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3977</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>349</v>
+        <v>184</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -5118,13 +5139,13 @@
         <v>9684</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>176</v>
+        <v>355</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,34 +5154,34 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2051</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H29" s="7">
         <v>8</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>5164</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H29" s="7">
-        <v>3</v>
-      </c>
-      <c r="I29" s="7">
-        <v>2051</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>229</v>
+        <v>296</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -5169,13 +5190,13 @@
         <v>7215</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>257</v>
+        <v>362</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,34 +5205,34 @@
         <v>26</v>
       </c>
       <c r="C30" s="7">
+        <v>15</v>
+      </c>
+      <c r="D30" s="7">
+        <v>10114</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H30" s="7">
         <v>14</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>9402</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H30" s="7">
-        <v>15</v>
-      </c>
-      <c r="I30" s="7">
-        <v>10114</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>104</v>
+        <v>368</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -5220,13 +5241,13 @@
         <v>19515</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>362</v>
+        <v>185</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,34 +5256,34 @@
         <v>32</v>
       </c>
       <c r="C31" s="7">
+        <v>59</v>
+      </c>
+      <c r="D31" s="7">
+        <v>40198</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H31" s="7">
         <v>58</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>40279</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H31" s="7">
-        <v>59</v>
-      </c>
-      <c r="I31" s="7">
-        <v>40198</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="M31" s="7">
         <v>117</v>
@@ -5271,13 +5292,13 @@
         <v>80477</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,34 +5307,34 @@
         <v>42</v>
       </c>
       <c r="C32" s="7">
+        <v>376</v>
+      </c>
+      <c r="D32" s="7">
+        <v>260962</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H32" s="7">
         <v>389</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>274039</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H32" s="7">
-        <v>376</v>
-      </c>
-      <c r="I32" s="7">
-        <v>260962</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M32" s="7">
         <v>765</v>
@@ -5322,13 +5343,13 @@
         <v>535001</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,25 +5358,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>459</v>
+      </c>
+      <c r="D33" s="7">
+        <v>317302</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="7">
         <v>477</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>334591</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="7">
-        <v>459</v>
-      </c>
-      <c r="I33" s="7">
-        <v>317302</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>52</v>
@@ -5384,7 +5405,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5404,7 +5425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32741CB-0B6C-4FEF-80F4-5D5B85E81023}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F651E3-136B-45FC-BE28-8823C95C033C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5421,7 +5442,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5525,31 +5546,31 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1410</v>
+        <v>1319</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>385</v>
+        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1319</v>
+        <v>1410</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>386</v>
+        <v>152</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5558,13 +5579,13 @@
         <v>2729</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>257</v>
+        <v>393</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,31 +5597,31 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1209</v>
+        <v>1323</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>389</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>1323</v>
+        <v>1209</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>384</v>
+        <v>31</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -5609,13 +5630,13 @@
         <v>2532</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,31 +5648,31 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>1847</v>
+        <v>2300</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>396</v>
+        <v>228</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>2300</v>
+        <v>1847</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -5660,13 +5681,13 @@
         <v>4147</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>400</v>
+        <v>144</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,34 +5696,34 @@
         <v>32</v>
       </c>
       <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5881</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H7" s="7">
         <v>7</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>4358</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="7">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5881</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5711,13 +5732,13 @@
         <v>10238</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>412</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,31 +5750,31 @@
         <v>82</v>
       </c>
       <c r="D8" s="7">
-        <v>54824</v>
+        <v>48884</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>416</v>
       </c>
       <c r="H8" s="7">
         <v>82</v>
       </c>
       <c r="I8" s="7">
-        <v>48884</v>
+        <v>54824</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M8" s="7">
         <v>164</v>
@@ -5762,13 +5783,13 @@
         <v>103708</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,25 +5798,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>98</v>
+      </c>
+      <c r="D9" s="7">
+        <v>59706</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7">
         <v>96</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>63648</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7">
-        <v>98</v>
-      </c>
-      <c r="I9" s="7">
-        <v>59706</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>52</v>
@@ -5833,31 +5854,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>549</v>
+        <v>753</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>424</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>753</v>
+        <v>549</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5869,10 +5890,10 @@
         <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,34 +5902,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1134</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>700</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1134</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>423</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5917,13 +5938,13 @@
         <v>1834</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,34 +5953,34 @@
         <v>26</v>
       </c>
       <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1878</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>3144</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1878</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>315</v>
+        <v>433</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>393</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -5968,13 +5989,13 @@
         <v>5022</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>227</v>
+        <v>436</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,34 +6004,34 @@
         <v>32</v>
       </c>
       <c r="C13" s="7">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7">
+        <v>11167</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H13" s="7">
         <v>20</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>12901</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="H13" s="7">
-        <v>18</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11167</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -6019,13 +6040,13 @@
         <v>24068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,34 +6055,34 @@
         <v>42</v>
       </c>
       <c r="C14" s="7">
+        <v>147</v>
+      </c>
+      <c r="D14" s="7">
+        <v>92087</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H14" s="7">
         <v>165</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>112394</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H14" s="7">
-        <v>147</v>
-      </c>
-      <c r="I14" s="7">
-        <v>92087</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="M14" s="7">
         <v>312</v>
@@ -6070,13 +6091,13 @@
         <v>204481</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,25 +6106,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>171</v>
+      </c>
+      <c r="D15" s="7">
+        <v>107019</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="7">
         <v>192</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>129688</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="7">
-        <v>171</v>
-      </c>
-      <c r="I15" s="7">
-        <v>107019</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>52</v>
@@ -6132,40 +6153,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>2084</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>457</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -6174,13 +6195,13 @@
         <v>2084</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>454</v>
+        <v>137</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,34 +6210,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>753</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>1552</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>753</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>463</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -6225,13 +6246,13 @@
         <v>2304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>55</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,34 +6261,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>738</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>2901</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>738</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>179</v>
+        <v>467</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>468</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -6276,13 +6297,13 @@
         <v>3639</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>424</v>
+        <v>172</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>226</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,34 +6312,34 @@
         <v>32</v>
       </c>
       <c r="C19" s="7">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7">
+        <v>12674</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H19" s="7">
         <v>6</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>3897</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="H19" s="7">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7">
-        <v>12674</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>466</v>
+        <v>236</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>235</v>
+        <v>473</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -6327,13 +6348,13 @@
         <v>16571</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,34 +6363,34 @@
         <v>42</v>
       </c>
       <c r="C20" s="7">
+        <v>110</v>
+      </c>
+      <c r="D20" s="7">
+        <v>76943</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H20" s="7">
         <v>116</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>81589</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="H20" s="7">
-        <v>110</v>
-      </c>
-      <c r="I20" s="7">
-        <v>76943</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="M20" s="7">
         <v>226</v>
@@ -6378,13 +6399,13 @@
         <v>158532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,7 +6417,7 @@
         <v>131</v>
       </c>
       <c r="D21" s="7">
-        <v>92022</v>
+        <v>91109</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>52</v>
@@ -6411,7 +6432,7 @@
         <v>131</v>
       </c>
       <c r="I21" s="7">
-        <v>91109</v>
+        <v>92022</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>52</v>
@@ -6449,31 +6470,31 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -6482,13 +6503,13 @@
         <v>1435</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>291</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,31 +6521,31 @@
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>690</v>
+        <v>540</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>483</v>
+        <v>360</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>540</v>
+        <v>690</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>255</v>
+        <v>493</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -6533,13 +6554,13 @@
         <v>1230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,34 +6569,34 @@
         <v>26</v>
       </c>
       <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1472</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H24" s="7">
         <v>5</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>3529</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1472</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>12</v>
+        <v>498</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -6584,13 +6605,13 @@
         <v>5002</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,34 +6620,34 @@
         <v>32</v>
       </c>
       <c r="C25" s="7">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7778</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="H25" s="7">
         <v>14</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>10278</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="H25" s="7">
-        <v>11</v>
-      </c>
-      <c r="I25" s="7">
-        <v>7778</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>270</v>
+        <v>505</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>496</v>
+        <v>404</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -6635,13 +6656,13 @@
         <v>18055</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>74</v>
+        <v>507</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,34 +6671,34 @@
         <v>42</v>
       </c>
       <c r="C26" s="7">
+        <v>94</v>
+      </c>
+      <c r="D26" s="7">
+        <v>68247</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H26" s="7">
         <v>95</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>71597</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="H26" s="7">
-        <v>94</v>
-      </c>
-      <c r="I26" s="7">
-        <v>68247</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="M26" s="7">
         <v>189</v>
@@ -6686,13 +6707,13 @@
         <v>139843</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>507</v>
+        <v>206</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,25 +6722,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>109</v>
+      </c>
+      <c r="D27" s="7">
+        <v>78758</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="7">
         <v>116</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>86807</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
-        <v>109</v>
-      </c>
-      <c r="I27" s="7">
-        <v>78758</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>52</v>
@@ -6754,34 +6775,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2793</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="H28" s="7">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>4756</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="H28" s="7">
-        <v>4</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2793</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>396</v>
+        <v>142</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>510</v>
+        <v>393</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -6790,13 +6811,13 @@
         <v>7549</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,31 +6829,31 @@
         <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>4151</v>
+        <v>3750</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>184</v>
+        <v>361</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>512</v>
+        <v>329</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
       </c>
       <c r="I29" s="7">
-        <v>3750</v>
+        <v>4151</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>357</v>
+        <v>520</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -6841,13 +6862,13 @@
         <v>7901</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>513</v>
+        <v>362</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,34 +6877,34 @@
         <v>26</v>
       </c>
       <c r="C30" s="7">
+        <v>9</v>
+      </c>
+      <c r="D30" s="7">
+        <v>6388</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="H30" s="7">
         <v>17</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>11422</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="H30" s="7">
-        <v>9</v>
-      </c>
-      <c r="I30" s="7">
-        <v>6388</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>389</v>
+        <v>524</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>461</v>
+        <v>358</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>55</v>
+        <v>525</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -6892,13 +6913,13 @@
         <v>17810</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,34 +6928,34 @@
         <v>32</v>
       </c>
       <c r="C31" s="7">
+        <v>57</v>
+      </c>
+      <c r="D31" s="7">
+        <v>37500</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="H31" s="7">
         <v>47</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>31433</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="H31" s="7">
-        <v>57</v>
-      </c>
-      <c r="I31" s="7">
-        <v>37500</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>524</v>
+        <v>439</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>269</v>
+        <v>99</v>
       </c>
       <c r="M31" s="7">
         <v>104</v>
@@ -6943,13 +6964,13 @@
         <v>68932</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,34 +6979,34 @@
         <v>42</v>
       </c>
       <c r="C32" s="7">
+        <v>433</v>
+      </c>
+      <c r="D32" s="7">
+        <v>286160</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="H32" s="7">
         <v>458</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>320405</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="H32" s="7">
-        <v>433</v>
-      </c>
-      <c r="I32" s="7">
-        <v>286160</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>533</v>
+        <v>422</v>
       </c>
       <c r="M32" s="7">
         <v>891</v>
@@ -6994,13 +7015,13 @@
         <v>606565</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,25 +7030,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>509</v>
+      </c>
+      <c r="D33" s="7">
+        <v>336591</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="7">
         <v>535</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>372166</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="7">
-        <v>509</v>
-      </c>
-      <c r="I33" s="7">
-        <v>336591</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>52</v>
@@ -7056,7 +7077,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
